--- a/adultos2000.xlsx
+++ b/adultos2000.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Historia A</t>
   </si>
@@ -119,13 +119,16 @@
     <t>Completadas</t>
   </si>
   <si>
-    <t>NOTA</t>
-  </si>
-  <si>
     <t>Promedio</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Nota</t>
   </si>
 </sst>
 </file>
@@ -244,20 +247,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Cálculo" xfId="2" builtinId="22"/>
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -282,6 +293,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -296,7 +314,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -583,165 +629,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
+        <v>42695</v>
+      </c>
+      <c r="D2" s="5">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
+        <v>42695</v>
+      </c>
+      <c r="D3" s="5">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -750,8 +835,11 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
@@ -760,8 +848,11 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
@@ -770,8 +861,11 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
@@ -780,72 +874,75 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <f>+AVERAGE(D2:D14,G2:G14,J2:J14)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2">
-        <f>+AVERAGE(C2:C14,E2:E14,G2:G14)</f>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C18" s="2">
-        <f>+COUNTA(B2:B14)+COUNTA(D2:D14)+COUNTA(F2:F14)</f>
+        <f>+COUNTA(B2:B14)+COUNTA(E2:E14)+COUNTA(H2:H14)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2">
-        <f>+COUNTA(C2:C14)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <f>+COUNTA(D2:D14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2">
         <f>+C18-C19</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B14">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>+ISBLANK($C2)</formula>
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>+$D2&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>+$C2&gt;0</formula>
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>+ISBLANK($D2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E14">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>+ISBLANK($G2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>+$G2&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H14">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>ISBLANK($J2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$J2&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D14">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>+$E2&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>+ISBLANK($E2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F14">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$G2&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>ISBLANK($G2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C14">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -859,7 +956,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E14">
+  <conditionalFormatting sqref="G2:G14">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -873,7 +970,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G14">
+  <conditionalFormatting sqref="J2:J14">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -903,7 +1000,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C14</xm:sqref>
+          <xm:sqref>D2:D14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E4770E63-D5DD-4B82-B7BB-7902B09692BD}">
@@ -916,7 +1013,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:E14</xm:sqref>
+          <xm:sqref>G2:G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61AFFDDA-B343-4C76-A25B-0A1EB9946070}">
@@ -929,7 +1026,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G14</xm:sqref>
+          <xm:sqref>J2:J14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/adultos2000.xlsx
+++ b/adultos2000.xlsx
@@ -261,49 +261,7 @@
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -632,7 +590,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,8 +711,12 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="6">
+        <v>42637</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
@@ -884,7 +846,7 @@
       </c>
       <c r="C17" s="2">
         <f>+AVERAGE(D2:D14,G2:G14,J2:J14)</f>
-        <v>8</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -901,8 +863,8 @@
         <v>30</v>
       </c>
       <c r="C19" s="2">
-        <f>+COUNTA(D2:D14)</f>
-        <v>2</v>
+        <f>+COUNTA(D2:D14,G2:G14,J2:J14)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -911,7 +873,7 @@
       </c>
       <c r="C20" s="2">
         <f>+C18-C19</f>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
